--- a/python/Excel_Python/Invoices_App.xlsx
+++ b/python/Excel_Python/Invoices_App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\cohort4\python\Excel_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{82435518-B7A2-4474-BF32-BF1555E974C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E876E-4905-4FF2-B2A7-AED003F8F9A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{744D7D43-5F18-4E52-9295-816C5B86A00E}"/>
+    <workbookView xWindow="15105" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{744D7D43-5F18-4E52-9295-816C5B86A00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
+  </si>
+  <si>
+    <t>date_of_invoice</t>
+  </si>
+  <si>
+    <t>invoice_number</t>
+  </si>
+  <si>
+    <t>Product_id</t>
+  </si>
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>Invoice_item_id</t>
+  </si>
+  <si>
+    <t>Invoice_qty</t>
+  </si>
+  <si>
+    <t>invoice_total</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Hikkins</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Farry</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Thomp</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Pwent</t>
+  </si>
+  <si>
+    <t>Plaski</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Wilde</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Rump</t>
+  </si>
+  <si>
+    <t>403-777-0123</t>
+  </si>
+  <si>
+    <t>403-777-0124</t>
+  </si>
+  <si>
+    <t>403-777-0125</t>
+  </si>
+  <si>
+    <t>403-777-0126</t>
+  </si>
+  <si>
+    <t>403-777-0127</t>
+  </si>
+  <si>
+    <t>403-777-0128</t>
+  </si>
+  <si>
+    <t>403-777-0129</t>
+  </si>
+  <si>
+    <t>403-777-0130</t>
+  </si>
+  <si>
+    <t>403-777-0131</t>
+  </si>
+  <si>
+    <t>403-777-0132</t>
+  </si>
+  <si>
+    <t>m.k@y.com</t>
+  </si>
+  <si>
+    <t>j.r@y.com</t>
+  </si>
+  <si>
+    <t>m.g@y.com</t>
+  </si>
+  <si>
+    <t>g.f@y.com</t>
+  </si>
+  <si>
+    <t>m.t@y.com</t>
+  </si>
+  <si>
+    <t>b.j@y.com</t>
+  </si>
+  <si>
+    <t>l.p@y.com</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>h.p@y.com</t>
+  </si>
+  <si>
+    <t>o.w@y.com</t>
+  </si>
+  <si>
+    <t>customer_FName</t>
+  </si>
+  <si>
+    <t>customer_LName</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,14 +241,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,54 +564,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B082A4D3-9D53-4058-8407-7722FE8500D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{07F0657E-D30D-4EB4-BDA8-D4061104A0F9}"/>
+    <hyperlink ref="E3:E11" r:id="rId2" display="m.k@y.com" xr:uid="{C8DD1A38-FB8F-4E34-861F-B84F30860D7C}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{D500676B-082E-4DA3-AEC4-A9C6F8CE112F}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{CACF444A-A997-4E50-96D8-A5D680E874D5}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{F50BD289-5303-4D79-8FDB-1083FFBEFB29}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{026563EB-156D-4970-A242-B8AFE1D0FB1B}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{0D1D344A-EE42-44FB-84B1-1A59ED9851D4}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{66914D72-04BF-4F89-A5EE-83DEDFA5B80B}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{065E06E9-0586-4DC3-88E8-1E2C80662B9E}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{3F46E4B3-E20F-4E2B-80E8-FB5C572B9EB5}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{BD1974A3-F31A-4475-8A35-F6533B44E01C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1151AD-ABE3-4EBD-A751-04C74E7A7844}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E146731-EF1A-46F1-9120-5529797485F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB53CD-78A0-4329-A0A3-83D6DC8898DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>